--- a/ProyectoConsola/ProyectoConsola/bin/Debug/net8.0/estados.xlsx
+++ b/ProyectoConsola/ProyectoConsola/bin/Debug/net8.0/estados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
   <si>
     <t>Estado actual</t>
   </si>
@@ -428,7 +428,7 @@
     <t>string_constant</t>
   </si>
   <si>
-    <t>'"' str'"'</t>
+    <t>'"' str '"'</t>
   </si>
   <si>
     <t>'"' / 0</t>
@@ -683,7 +683,7 @@
     <t>Estado: 48</t>
   </si>
   <si>
-    <t>str'"' / 1</t>
+    <t>str / 1</t>
   </si>
   <si>
     <t>Estado: 49</t>
@@ -785,7 +785,7 @@
     <t>argument_list_ext</t>
   </si>
   <si>
-    <t>',' &lt;expression&gt;&lt;argument_list_ext&gt;</t>
+    <t>',' &lt;expression&gt; &lt;argument_list_ext&gt;</t>
   </si>
   <si>
     <t>',' / 0</t>
@@ -866,6 +866,9 @@
     <t>Estado: 91</t>
   </si>
   <si>
+    <t>'"' / 2</t>
+  </si>
+  <si>
     <t>Estado: 92</t>
   </si>
   <si>
@@ -926,9 +929,6 @@
     <t>Estado: 107</t>
   </si>
   <si>
-    <t>&lt;expression&gt;&lt;argument_list_ext&gt; / 1</t>
-  </si>
-  <si>
     <t>Estado: 108</t>
   </si>
   <si>
@@ -968,16 +968,19 @@
     <t>Estado: 116</t>
   </si>
   <si>
+    <t>Estado: 117</t>
+  </si>
+  <si>
     <t>E.O.P. / 6</t>
   </si>
   <si>
-    <t>Estado: 117</t>
+    <t>Estado: 118</t>
   </si>
   <si>
     <t>&lt;block&gt; / 6</t>
   </si>
   <si>
-    <t>Estado: 118</t>
+    <t>Estado: 119</t>
   </si>
   <si>
     <t>&lt;parameter_list_ext&gt; / 3</t>
@@ -989,9 +992,6 @@
     <t>',' identifier ':' &lt;type&gt; &lt;parameter_list_ext&gt;</t>
   </si>
   <si>
-    <t>Estado: 119</t>
-  </si>
-  <si>
     <t>Estado: 120</t>
   </si>
   <si>
@@ -1013,18 +1013,21 @@
     <t>Estado: 126</t>
   </si>
   <si>
+    <t>&lt;argument_list_ext&gt; / 2</t>
+  </si>
+  <si>
     <t>Estado: 127</t>
   </si>
   <si>
     <t>Estado: 128</t>
   </si>
   <si>
+    <t>Estado: 129</t>
+  </si>
+  <si>
     <t>';' / 7</t>
   </si>
   <si>
-    <t>Estado: 129</t>
-  </si>
-  <si>
     <t>Estado: 130</t>
   </si>
   <si>
@@ -1049,25 +1052,31 @@
     <t>Estado: 137</t>
   </si>
   <si>
+    <t>Estado: 138</t>
+  </si>
+  <si>
+    <t>Estado: 139</t>
+  </si>
+  <si>
     <t>E.O.P. / 8</t>
   </si>
   <si>
-    <t>Estado: 138</t>
-  </si>
-  <si>
-    <t>Estado: 139</t>
-  </si>
-  <si>
     <t>Estado: 140</t>
   </si>
   <si>
     <t>Estado: 141</t>
   </si>
   <si>
+    <t>Estado: 142</t>
+  </si>
+  <si>
+    <t>Estado: 143</t>
+  </si>
+  <si>
     <t>&lt;parameter_list_ext&gt; / 4</t>
   </si>
   <si>
-    <t>Estado: 142</t>
+    <t>Estado: 144</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1123,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D756"/>
+  <dimension ref="A1:D774"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5975,7 +5984,7 @@
         <v>138</v>
       </c>
       <c r="C498" s="0" t="s">
-        <v>53</v>
+        <v>284</v>
       </c>
       <c r="D498" s="0" t="s">
         <v>124</v>
@@ -5983,7 +5992,7 @@
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="501">
@@ -6170,7 +6179,7 @@
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="516">
@@ -6203,7 +6212,7 @@
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="520">
@@ -6236,7 +6245,7 @@
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="524">
@@ -6247,7 +6256,7 @@
         <v>30</v>
       </c>
       <c r="C524" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D524" s="0" t="s">
         <v>32</v>
@@ -6269,7 +6278,7 @@
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="528">
@@ -6280,7 +6289,7 @@
         <v>36</v>
       </c>
       <c r="C528" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D528" s="0" t="s">
         <v>32</v>
@@ -6288,7 +6297,7 @@
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="531">
@@ -6299,7 +6308,7 @@
         <v>161</v>
       </c>
       <c r="C531" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D531" s="0" t="s">
         <v>162</v>
@@ -6363,7 +6372,7 @@
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="538">
@@ -6382,7 +6391,7 @@
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="541">
@@ -6555,7 +6564,7 @@
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="555">
@@ -6742,7 +6751,7 @@
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="570">
@@ -6761,7 +6770,7 @@
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="573">
@@ -6780,7 +6789,7 @@
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="576">
@@ -6953,7 +6962,7 @@
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="590">
@@ -6972,7 +6981,7 @@
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="593">
@@ -6983,7 +6992,7 @@
         <v>79</v>
       </c>
       <c r="C593" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D593" s="0" t="s">
         <v>59</v>
@@ -6997,7 +7006,7 @@
         <v>79</v>
       </c>
       <c r="C594" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D594" s="0" t="s">
         <v>88</v>
@@ -7005,7 +7014,7 @@
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="597">
@@ -7024,7 +7033,7 @@
     </row>
     <row r="599">
       <c r="A599" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="600">
@@ -7035,584 +7044,584 @@
         <v>257</v>
       </c>
       <c r="C600" s="0" t="s">
-        <v>304</v>
+        <v>108</v>
       </c>
       <c r="D600" s="0" t="s">
         <v>162</v>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B601" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C601" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D601" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>305</v>
+        <v>113</v>
+      </c>
+      <c r="B602" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C602" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D602" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="C603" s="0" t="s">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="D603" s="0" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C604" s="0" t="s">
-        <v>306</v>
+        <v>123</v>
       </c>
       <c r="D604" s="0" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>308</v>
+        <v>125</v>
       </c>
       <c r="C605" s="0" t="s">
-        <v>309</v>
+        <v>65</v>
       </c>
       <c r="D605" s="0" t="s">
-        <v>88</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B606" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C606" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D606" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>310</v>
+        <v>121</v>
+      </c>
+      <c r="B607" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C607" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D607" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="C608" s="0" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="D608" s="0" t="s">
-        <v>112</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B609" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C609" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D609" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>311</v>
+        <v>121</v>
+      </c>
+      <c r="B610" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C610" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D610" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C611" s="0" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D611" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C614" s="0" t="s">
-        <v>164</v>
+        <v>306</v>
       </c>
       <c r="D614" s="0" t="s">
-        <v>120</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B615" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C615" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D615" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B617" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C617" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D617" s="0" t="s">
-        <v>124</v>
+        <v>307</v>
+      </c>
+      <c r="B616" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C616" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D616" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="0" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B620" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C620" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="D620" s="0" t="s">
-        <v>59</v>
+        <v>180</v>
+      </c>
+      <c r="B619" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C619" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D619" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B621" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C621" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="D621" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" s="0" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B622" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C622" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D622" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B624" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C624" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="D624" s="0" t="s">
-        <v>59</v>
+        <v>312</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>301</v>
+        <v>164</v>
       </c>
       <c r="D625" s="0" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="B628" s="0" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>301</v>
+        <v>164</v>
       </c>
       <c r="D628" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B629" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C629" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="D629" s="0" t="s">
-        <v>88</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="0" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B632" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C632" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="D632" s="0" t="s">
-        <v>32</v>
+        <v>137</v>
+      </c>
+      <c r="B631" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C631" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D631" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="0" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>319</v>
+        <v>73</v>
+      </c>
+      <c r="B634" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C634" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D634" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="D635" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B636" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C636" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D636" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B637" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C637" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D637" s="0" t="s">
-        <v>28</v>
+        <v>316</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="D638" s="0" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>34</v>
+        <v>302</v>
       </c>
       <c r="D639" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B640" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C640" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D640" s="0" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="0" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>321</v>
+        <v>82</v>
+      </c>
+      <c r="B642" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C642" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D642" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="B643" s="0" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="D643" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B644" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C644" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="D644" s="0" t="s">
-        <v>162</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="0" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B647" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C647" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D647" s="0" t="s">
-        <v>88</v>
+        <v>29</v>
+      </c>
+      <c r="B646" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C646" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D646" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="0" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>326</v>
+        <v>35</v>
+      </c>
+      <c r="B649" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C649" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="D649" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="D650" s="0" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B651" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C651" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D651" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>327</v>
+        <v>29</v>
+      </c>
+      <c r="B652" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C652" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D652" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B653" s="0" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>260</v>
+        <v>34</v>
       </c>
       <c r="D653" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B654" s="0" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D654" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B655" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C655" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D655" s="0" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B656" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C656" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D656" s="0" t="s">
-        <v>261</v>
+        <v>322</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>70</v>
+        <v>323</v>
       </c>
       <c r="D657" s="0" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>60</v>
+        <v>324</v>
       </c>
       <c r="B658" s="0" t="s">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D658" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B659" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C659" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D659" s="0" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B660" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C660" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D660" s="0" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="D661" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B662" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C662" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D662" s="0" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B663" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C663" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D663" s="0" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C664" s="0" t="s">
-        <v>86</v>
+        <v>253</v>
       </c>
       <c r="D664" s="0" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
     </row>
     <row r="666">
@@ -7622,10 +7631,10 @@
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C667" s="0" t="s">
         <v>260</v>
@@ -7645,7 +7654,7 @@
         <v>62</v>
       </c>
       <c r="D668" s="0" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="669">
@@ -7659,7 +7668,7 @@
         <v>65</v>
       </c>
       <c r="D669" s="0" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="670">
@@ -7673,7 +7682,7 @@
         <v>67</v>
       </c>
       <c r="D670" s="0" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="671">
@@ -7687,7 +7696,7 @@
         <v>70</v>
       </c>
       <c r="D671" s="0" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="672">
@@ -7701,7 +7710,7 @@
         <v>72</v>
       </c>
       <c r="D672" s="0" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="673">
@@ -7715,7 +7724,7 @@
         <v>75</v>
       </c>
       <c r="D673" s="0" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="674">
@@ -7729,7 +7738,7 @@
         <v>77</v>
       </c>
       <c r="D674" s="0" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="675">
@@ -7743,7 +7752,7 @@
         <v>65</v>
       </c>
       <c r="D675" s="0" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="676">
@@ -7757,7 +7766,7 @@
         <v>81</v>
       </c>
       <c r="D676" s="0" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="677">
@@ -7771,7 +7780,7 @@
         <v>84</v>
       </c>
       <c r="D677" s="0" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="678">
@@ -7785,7 +7794,7 @@
         <v>86</v>
       </c>
       <c r="D678" s="0" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="680">
@@ -7795,322 +7804,391 @@
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D681" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B682" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C682" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D682" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>330</v>
+        <v>63</v>
+      </c>
+      <c r="B683" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C683" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D683" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C684" s="0" t="s">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="D684" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B685" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C685" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D685" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>331</v>
+        <v>60</v>
+      </c>
+      <c r="B686" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C686" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D686" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D687" s="0" t="s">
-        <v>162</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B688" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C688" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D688" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>332</v>
+        <v>78</v>
+      </c>
+      <c r="B689" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C689" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D689" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C690" s="0" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D690" s="0" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C691" s="0" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D691" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="693">
-      <c r="A693" s="0" t="s">
-        <v>333</v>
+    <row r="692">
+      <c r="A692" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B692" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C692" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D692" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B694" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="C694" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D694" s="0" t="s">
-        <v>88</v>
+        <v>330</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B695" s="0" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C695" s="0" t="s">
-        <v>62</v>
+        <v>253</v>
       </c>
       <c r="D695" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B696" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C696" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D696" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B697" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C697" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D697" s="0" t="s">
-        <v>88</v>
+        <v>331</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C698" s="0" t="s">
-        <v>70</v>
+        <v>253</v>
       </c>
       <c r="D698" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B699" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C699" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D699" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B700" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C700" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D700" s="0" t="s">
-        <v>88</v>
+        <v>332</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="C701" s="0" t="s">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="D701" s="0" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="B702" s="0" t="s">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="C702" s="0" t="s">
-        <v>65</v>
+        <v>258</v>
       </c>
       <c r="D702" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B703" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C703" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D703" s="0" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B704" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C704" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D704" s="0" t="s">
-        <v>88</v>
+        <v>334</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B705" s="0" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C705" s="0" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="D705" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" s="0" t="s">
-        <v>334</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B706" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C706" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D706" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B708" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C708" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="D708" s="0" t="s">
-        <v>32</v>
+    </row>
+    <row r="709">
+      <c r="A709" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B709" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C709" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D709" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>336</v>
+        <v>60</v>
+      </c>
+      <c r="B710" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C710" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D710" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="B711" s="0" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="C711" s="0" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="D711" s="0" t="s">
-        <v>162</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B712" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C712" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D712" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>337</v>
+        <v>68</v>
+      </c>
+      <c r="B713" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C713" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D713" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>323</v>
+        <v>60</v>
       </c>
       <c r="B714" s="0" t="s">
-        <v>324</v>
+        <v>71</v>
       </c>
       <c r="C714" s="0" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D714" s="0" t="s">
-        <v>162</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B715" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C715" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D715" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>338</v>
+        <v>60</v>
+      </c>
+      <c r="B716" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C716" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D716" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="717">
@@ -8121,173 +8199,196 @@
         <v>79</v>
       </c>
       <c r="C717" s="0" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="D717" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B718" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C718" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D718" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>339</v>
+        <v>82</v>
+      </c>
+      <c r="B719" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C719" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D719" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B720" s="0" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C720" s="0" t="s">
-        <v>306</v>
+        <v>86</v>
       </c>
       <c r="D720" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="721">
-      <c r="A721" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B721" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="C721" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D721" s="0" t="s">
-        <v>88</v>
+    <row r="722">
+      <c r="A722" s="0" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B724" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C724" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="D724" s="0" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="B723" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C723" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D723" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="0" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B727" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C727" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="D727" s="0" t="s">
-        <v>88</v>
+        <v>160</v>
+      </c>
+      <c r="B726" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C726" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D726" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="0" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B730" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C730" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="D730" s="0" t="s">
-        <v>88</v>
+        <v>324</v>
+      </c>
+      <c r="B729" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C729" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D729" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="0" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B733" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="C733" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D733" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="B732" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C732" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D732" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="0" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>344</v>
+        <v>68</v>
+      </c>
+      <c r="B735" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C735" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D735" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>36</v>
+        <v>308</v>
       </c>
       <c r="C736" s="0" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="D736" s="0" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="C739" s="0" t="s">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="D739" s="0" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B742" s="0" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C742" s="0" t="s">
-        <v>51</v>
+        <v>302</v>
       </c>
       <c r="D742" s="0" t="s">
         <v>88</v>
@@ -8295,128 +8396,242 @@
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>323</v>
+        <v>82</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>324</v>
+        <v>85</v>
       </c>
       <c r="C745" s="0" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
       <c r="D745" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B746" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C746" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D746" s="0" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B747" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C747" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D747" s="0" t="s">
-        <v>175</v>
+        <v>345</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="B748" s="0" t="s">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="C748" s="0" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D748" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B749" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C749" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D749" s="0" t="s">
-        <v>175</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="0" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B752" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C752" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="D752" s="0" t="s">
-        <v>162</v>
+        <v>307</v>
+      </c>
+      <c r="B751" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C751" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D751" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B753" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C753" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="D753" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" s="0" t="s">
-        <v>351</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B754" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C754" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D754" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B756" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="C756" s="0" t="s">
+      <c r="B757" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C757" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D757" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B760" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C760" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D756" s="0" t="s">
+      <c r="D760" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B763" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C763" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D763" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B764" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C764" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D764" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B765" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C765" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D765" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B766" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C766" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D766" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B767" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C767" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D767" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B770" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C770" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="D770" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B771" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C771" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D771" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B774" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C774" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D774" s="0" t="s">
         <v>162</v>
       </c>
     </row>

--- a/ProyectoConsola/ProyectoConsola/bin/Debug/net8.0/estados.xlsx
+++ b/ProyectoConsola/ProyectoConsola/bin/Debug/net8.0/estados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t>Estado actual</t>
   </si>
@@ -362,7 +362,7 @@
     <t>&lt;term&gt; / 0</t>
   </si>
   <si>
-    <t>=, &lt;&gt;, &lt;, &lt;=, &gt;, &gt;=</t>
+    <t>=</t>
   </si>
   <si>
     <t>term</t>
@@ -407,16 +407,16 @@
     <t>boolean_constant</t>
   </si>
   <si>
-    <t>'TRUE'</t>
-  </si>
-  <si>
-    <t>'TRUE' / 0</t>
-  </si>
-  <si>
-    <t>'FALSE'</t>
-  </si>
-  <si>
-    <t>'FALSE' / 0</t>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>TRUE / 0</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>FALSE / 0</t>
   </si>
   <si>
     <t>&lt;string_constant&gt;</t>
@@ -428,10 +428,10 @@
     <t>string_constant</t>
   </si>
   <si>
-    <t>'"' str '"'</t>
-  </si>
-  <si>
-    <t>'"' / 0</t>
+    <t>"' str '"</t>
+  </si>
+  <si>
+    <t>"' / 0</t>
   </si>
   <si>
     <t>Estado: 24</t>
@@ -464,28 +464,28 @@
     <t>type</t>
   </si>
   <si>
-    <t>'INTEGER'</t>
-  </si>
-  <si>
-    <t>'INTEGER' / 0</t>
-  </si>
-  <si>
-    <t>'REAL'</t>
-  </si>
-  <si>
-    <t>'REAL' / 0</t>
-  </si>
-  <si>
-    <t>'BOOLEAN'</t>
-  </si>
-  <si>
-    <t>'BOOLEAN' / 0</t>
-  </si>
-  <si>
-    <t>'STRING'</t>
-  </si>
-  <si>
-    <t>'STRING' / 0</t>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>INTEGER / 0</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>REAL / 0</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>BOOLEAN / 0</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>STRING / 0</t>
   </si>
   <si>
     <t>Estado: 31</t>
@@ -566,43 +566,40 @@
     <t>relational_operator</t>
   </si>
   <si>
-    <t>'='</t>
-  </si>
-  <si>
-    <t>'=' / 0</t>
+    <t>= / 0</t>
   </si>
   <si>
     <t>(, identifier, number, TRUE, FALSE, "</t>
   </si>
   <si>
-    <t>'&lt;&gt;'</t>
-  </si>
-  <si>
-    <t>'&lt;&gt;' / 0</t>
-  </si>
-  <si>
-    <t>'&lt;'</t>
-  </si>
-  <si>
-    <t>'&lt;' / 0</t>
-  </si>
-  <si>
-    <t>'&lt;='</t>
-  </si>
-  <si>
-    <t>'&lt;=' / 0</t>
-  </si>
-  <si>
-    <t>'&gt;'</t>
-  </si>
-  <si>
-    <t>'&gt;' / 0</t>
-  </si>
-  <si>
-    <t>'&gt;='</t>
-  </si>
-  <si>
-    <t>'&gt;=' / 0</t>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&gt; / 0</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&lt; / 0</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>&lt;= / 0</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&gt; / 0</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&gt;= / 0</t>
   </si>
   <si>
     <t>Estado: 39</t>
@@ -614,22 +611,22 @@
     <t>additive_operator</t>
   </si>
   <si>
-    <t>'+'</t>
-  </si>
-  <si>
-    <t>'+' / 0</t>
-  </si>
-  <si>
-    <t>'-'</t>
-  </si>
-  <si>
-    <t>'-' / 0</t>
-  </si>
-  <si>
-    <t>'OR'</t>
-  </si>
-  <si>
-    <t>'OR' / 0</t>
+    <t>+</t>
+  </si>
+  <si>
+    <t>+ / 0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>- / 0</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>OR / 0</t>
   </si>
   <si>
     <t>Estado: 40</t>
@@ -641,22 +638,22 @@
     <t>multiplicative_operator</t>
   </si>
   <si>
-    <t>'*'</t>
-  </si>
-  <si>
-    <t>'*' / 0</t>
-  </si>
-  <si>
-    <t>'/'</t>
-  </si>
-  <si>
-    <t>'/' / 0</t>
-  </si>
-  <si>
-    <t>'AND'</t>
-  </si>
-  <si>
-    <t>'AND' / 0</t>
+    <t>*</t>
+  </si>
+  <si>
+    <t>* / 0</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/ / 0</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>AND / 0</t>
   </si>
   <si>
     <t>Estado: 41</t>
@@ -818,6 +815,9 @@
     <t>Estado: 78</t>
   </si>
   <si>
+    <t>&lt;term&gt; / 2</t>
+  </si>
+  <si>
     <t>Estado: 79</t>
   </si>
   <si>
@@ -830,7 +830,7 @@
     <t>Estado: 82</t>
   </si>
   <si>
-    <t>&lt;term&gt; / 2</t>
+    <t>&lt;factor&gt; / 2</t>
   </si>
   <si>
     <t>Estado: 83</t>
@@ -845,12 +845,15 @@
     <t>Estado: 86</t>
   </si>
   <si>
-    <t>&lt;factor&gt; / 2</t>
+    <t>')' / 2</t>
   </si>
   <si>
     <t>Estado: 87</t>
   </si>
   <si>
+    <t>'" / 2</t>
+  </si>
+  <si>
     <t>Estado: 88</t>
   </si>
   <si>
@@ -860,42 +863,36 @@
     <t>Estado: 90</t>
   </si>
   <si>
-    <t>')' / 2</t>
-  </si>
-  <si>
     <t>Estado: 91</t>
   </si>
   <si>
-    <t>'"' / 2</t>
+    <t>&lt;var_declaration&gt; / 5</t>
   </si>
   <si>
     <t>Estado: 92</t>
   </si>
   <si>
+    <t>';' / 5</t>
+  </si>
+  <si>
     <t>Estado: 93</t>
   </si>
   <si>
+    <t>&lt;type&gt; / 2</t>
+  </si>
+  <si>
     <t>Estado: 94</t>
   </si>
   <si>
     <t>Estado: 95</t>
   </si>
   <si>
-    <t>&lt;var_declaration&gt; / 5</t>
-  </si>
-  <si>
     <t>Estado: 96</t>
   </si>
   <si>
-    <t>';' / 5</t>
-  </si>
-  <si>
     <t>Estado: 97</t>
   </si>
   <si>
-    <t>&lt;type&gt; / 2</t>
-  </si>
-  <si>
     <t>Estado: 98</t>
   </si>
   <si>
@@ -908,6 +905,9 @@
     <t>Estado: 101</t>
   </si>
   <si>
+    <t>E.O.P. / 4</t>
+  </si>
+  <si>
     <t>Estado: 102</t>
   </si>
   <si>
@@ -917,12 +917,21 @@
     <t>Estado: 104</t>
   </si>
   <si>
+    <t>&lt;else_statement&gt; / 4</t>
+  </si>
+  <si>
+    <t>else_statement</t>
+  </si>
+  <si>
+    <t>'ELSE' &lt;statement&gt;</t>
+  </si>
+  <si>
+    <t>'ELSE' / 0</t>
+  </si>
+  <si>
     <t>Estado: 105</t>
   </si>
   <si>
-    <t>E.O.P. / 4</t>
-  </si>
-  <si>
     <t>Estado: 106</t>
   </si>
   <si>
@@ -932,18 +941,6 @@
     <t>Estado: 108</t>
   </si>
   <si>
-    <t>&lt;else_statement&gt; / 4</t>
-  </si>
-  <si>
-    <t>else_statement</t>
-  </si>
-  <si>
-    <t>'ELSE' &lt;statement&gt;</t>
-  </si>
-  <si>
-    <t>'ELSE' / 0</t>
-  </si>
-  <si>
     <t>Estado: 109</t>
   </si>
   <si>
@@ -959,39 +956,39 @@
     <t>Estado: 113</t>
   </si>
   <si>
+    <t>E.O.P. / 6</t>
+  </si>
+  <si>
     <t>Estado: 114</t>
   </si>
   <si>
+    <t>&lt;block&gt; / 6</t>
+  </si>
+  <si>
     <t>Estado: 115</t>
   </si>
   <si>
+    <t>&lt;parameter_list_ext&gt; / 3</t>
+  </si>
+  <si>
+    <t>parameter_list_ext</t>
+  </si>
+  <si>
+    <t>',' identifier ':' &lt;type&gt; &lt;parameter_list_ext&gt;</t>
+  </si>
+  <si>
     <t>Estado: 116</t>
   </si>
   <si>
     <t>Estado: 117</t>
   </si>
   <si>
-    <t>E.O.P. / 6</t>
-  </si>
-  <si>
     <t>Estado: 118</t>
   </si>
   <si>
-    <t>&lt;block&gt; / 6</t>
-  </si>
-  <si>
     <t>Estado: 119</t>
   </si>
   <si>
-    <t>&lt;parameter_list_ext&gt; / 3</t>
-  </si>
-  <si>
-    <t>parameter_list_ext</t>
-  </si>
-  <si>
-    <t>',' identifier ':' &lt;type&gt; &lt;parameter_list_ext&gt;</t>
-  </si>
-  <si>
     <t>Estado: 120</t>
   </si>
   <si>
@@ -1001,6 +998,9 @@
     <t>Estado: 122</t>
   </si>
   <si>
+    <t>&lt;argument_list_ext&gt; / 2</t>
+  </si>
+  <si>
     <t>Estado: 123</t>
   </si>
   <si>
@@ -1010,12 +1010,12 @@
     <t>Estado: 125</t>
   </si>
   <si>
+    <t>';' / 7</t>
+  </si>
+  <si>
     <t>Estado: 126</t>
   </si>
   <si>
-    <t>&lt;argument_list_ext&gt; / 2</t>
-  </si>
-  <si>
     <t>Estado: 127</t>
   </si>
   <si>
@@ -1025,9 +1025,6 @@
     <t>Estado: 129</t>
   </si>
   <si>
-    <t>';' / 7</t>
-  </si>
-  <si>
     <t>Estado: 130</t>
   </si>
   <si>
@@ -1046,6 +1043,9 @@
     <t>Estado: 135</t>
   </si>
   <si>
+    <t>E.O.P. / 8</t>
+  </si>
+  <si>
     <t>Estado: 136</t>
   </si>
   <si>
@@ -1058,25 +1058,10 @@
     <t>Estado: 139</t>
   </si>
   <si>
-    <t>E.O.P. / 8</t>
+    <t>&lt;parameter_list_ext&gt; / 4</t>
   </si>
   <si>
     <t>Estado: 140</t>
-  </si>
-  <si>
-    <t>Estado: 141</t>
-  </si>
-  <si>
-    <t>Estado: 142</t>
-  </si>
-  <si>
-    <t>Estado: 143</t>
-  </si>
-  <si>
-    <t>&lt;parameter_list_ext&gt; / 4</t>
-  </si>
-  <si>
-    <t>Estado: 144</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1108,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D774"/>
+  <dimension ref="A1:D766"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3546,13 +3531,13 @@
         <v>183</v>
       </c>
       <c r="B237" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C237" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C237" s="0" t="s">
+      <c r="D237" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="D237" s="0" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="238">
@@ -3560,13 +3545,13 @@
         <v>183</v>
       </c>
       <c r="B238" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C238" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C238" s="0" t="s">
-        <v>188</v>
-      </c>
       <c r="D238" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="239">
@@ -3574,13 +3559,13 @@
         <v>183</v>
       </c>
       <c r="B239" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C239" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C239" s="0" t="s">
-        <v>190</v>
-      </c>
       <c r="D239" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="240">
@@ -3588,13 +3573,13 @@
         <v>183</v>
       </c>
       <c r="B240" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C240" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C240" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="D240" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="241">
@@ -3602,13 +3587,13 @@
         <v>183</v>
       </c>
       <c r="B241" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C241" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C241" s="0" t="s">
-        <v>194</v>
-      </c>
       <c r="D241" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="242">
@@ -3616,18 +3601,18 @@
         <v>183</v>
       </c>
       <c r="B242" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C242" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C242" s="0" t="s">
-        <v>196</v>
-      </c>
       <c r="D242" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="245">
@@ -3638,7 +3623,7 @@
         <v>114</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>116</v>
@@ -3646,49 +3631,49 @@
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B246" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="C246" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C246" s="0" t="s">
-        <v>201</v>
-      </c>
       <c r="D246" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B247" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C247" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C247" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D247" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B248" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C248" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="C248" s="0" t="s">
-        <v>205</v>
-      </c>
       <c r="D248" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="251">
@@ -3699,7 +3684,7 @@
         <v>118</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D251" s="0" t="s">
         <v>120</v>
@@ -3707,49 +3692,49 @@
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B252" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B252" s="0" t="s">
+      <c r="C252" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="C252" s="0" t="s">
-        <v>210</v>
-      </c>
       <c r="D252" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B253" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C253" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C253" s="0" t="s">
-        <v>212</v>
-      </c>
       <c r="D253" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B254" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C254" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="C254" s="0" t="s">
-        <v>214</v>
-      </c>
       <c r="D254" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="257">
@@ -3922,7 +3907,7 @@
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="271">
@@ -3941,7 +3926,7 @@
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="274">
@@ -3960,7 +3945,7 @@
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="277">
@@ -3979,7 +3964,7 @@
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="280">
@@ -3998,7 +3983,7 @@
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="283">
@@ -4017,7 +4002,7 @@
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="286">
@@ -4036,7 +4021,7 @@
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="289">
@@ -4047,7 +4032,7 @@
         <v>138</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>124</v>
@@ -4055,7 +4040,7 @@
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="292">
@@ -4066,7 +4051,7 @@
         <v>74</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>59</v>
@@ -4080,7 +4065,7 @@
         <v>74</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>88</v>
@@ -4088,7 +4073,7 @@
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="296">
@@ -4275,7 +4260,7 @@
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="311">
@@ -4286,7 +4271,7 @@
         <v>85</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D311" s="0" t="s">
         <v>59</v>
@@ -4300,7 +4285,7 @@
         <v>85</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D312" s="0" t="s">
         <v>88</v>
@@ -4308,7 +4293,7 @@
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="315">
@@ -4319,7 +4304,7 @@
         <v>30</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>32</v>
@@ -4327,7 +4312,7 @@
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="318">
@@ -4346,7 +4331,7 @@
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="321">
@@ -4365,7 +4350,7 @@
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="324">
@@ -4384,7 +4369,7 @@
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="327">
@@ -4403,7 +4388,7 @@
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="330">
@@ -4414,7 +4399,7 @@
         <v>36</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>32</v>
@@ -4422,7 +4407,7 @@
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="333">
@@ -4433,7 +4418,7 @@
         <v>161</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>162</v>
@@ -4441,7 +4426,7 @@
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="336">
@@ -4452,7 +4437,7 @@
         <v>100</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>59</v>
@@ -4474,7 +4459,7 @@
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="340">
@@ -4493,7 +4478,7 @@
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="343">
@@ -4526,7 +4511,7 @@
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="347">
@@ -4545,7 +4530,7 @@
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="350">
@@ -4718,7 +4703,7 @@
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="364">
@@ -4737,7 +4722,7 @@
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="367">
@@ -4910,7 +4895,7 @@
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="381">
@@ -4929,7 +4914,7 @@
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="384">
@@ -4948,7 +4933,7 @@
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="387">
@@ -4967,7 +4952,7 @@
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="390">
@@ -4986,7 +4971,7 @@
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="393">
@@ -5019,7 +5004,7 @@
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="397">
@@ -5030,7 +5015,7 @@
         <v>79</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D397" s="0" t="s">
         <v>59</v>
@@ -5044,7 +5029,7 @@
         <v>79</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D398" s="0" t="s">
         <v>88</v>
@@ -5052,7 +5037,7 @@
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="401">
@@ -5063,7 +5048,7 @@
         <v>173</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D401" s="0" t="s">
         <v>162</v>
@@ -5071,13 +5056,13 @@
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B402" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B402" s="0" t="s">
+      <c r="C402" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="C402" s="0" t="s">
-        <v>258</v>
       </c>
       <c r="D402" s="0" t="s">
         <v>162</v>
@@ -5085,7 +5070,7 @@
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="405">
@@ -5096,7 +5081,7 @@
         <v>69</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D405" s="0" t="s">
         <v>59</v>
@@ -5110,7 +5095,7 @@
         <v>69</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>88</v>
@@ -5127,7 +5112,7 @@
         <v>62</v>
       </c>
       <c r="D407" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="408">
@@ -5141,7 +5126,7 @@
         <v>65</v>
       </c>
       <c r="D408" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="409">
@@ -5155,7 +5140,7 @@
         <v>67</v>
       </c>
       <c r="D409" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="410">
@@ -5169,7 +5154,7 @@
         <v>70</v>
       </c>
       <c r="D410" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="411">
@@ -5183,7 +5168,7 @@
         <v>72</v>
       </c>
       <c r="D411" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="412">
@@ -5197,7 +5182,7 @@
         <v>75</v>
       </c>
       <c r="D412" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="413">
@@ -5211,7 +5196,7 @@
         <v>77</v>
       </c>
       <c r="D413" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="414">
@@ -5225,7 +5210,7 @@
         <v>65</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="415">
@@ -5239,7 +5224,7 @@
         <v>81</v>
       </c>
       <c r="D415" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="416">
@@ -5253,7 +5238,7 @@
         <v>84</v>
       </c>
       <c r="D416" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="417">
@@ -5267,12 +5252,12 @@
         <v>86</v>
       </c>
       <c r="D417" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="420">
@@ -5291,7 +5276,7 @@
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="423">
@@ -5302,7 +5287,7 @@
         <v>181</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D423" s="0" t="s">
         <v>112</v>
@@ -5450,7 +5435,7 @@
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="436">
@@ -5458,37 +5443,60 @@
         <v>183</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="C436" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D436" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C437" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D437" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B439" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="C439" s="0" t="s">
+      <c r="B438" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C438" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D439" s="0" t="s">
-        <v>186</v>
+      <c r="D438" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>267</v>
+        <v>183</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D441" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="442">
@@ -5496,528 +5504,597 @@
         <v>183</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C442" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D442" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="0" t="s">
-        <v>268</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B443" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C443" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D443" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B445" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C445" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D445" s="0" t="s">
-        <v>186</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C446" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D446" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>269</v>
+        <v>117</v>
+      </c>
+      <c r="B447" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C447" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D447" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="C448" s="0" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D448" s="0" t="s">
-        <v>186</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B449" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C449" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D449" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>270</v>
+        <v>121</v>
+      </c>
+      <c r="B450" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C450" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D450" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="C451" s="0" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="D451" s="0" t="s">
-        <v>186</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B452" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C452" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D452" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>271</v>
+        <v>130</v>
+      </c>
+      <c r="B453" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C453" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D453" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C454" s="0" t="s">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="D454" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C455" s="0" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D455" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B456" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C456" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D456" s="0" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B457" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C457" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D457" s="0" t="s">
-        <v>124</v>
+        <v>268</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="C458" s="0" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D458" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B459" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C459" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D459" s="0" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B460" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C460" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D460" s="0" t="s">
-        <v>124</v>
+        <v>269</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="C461" s="0" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="D461" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B462" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C462" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D462" s="0" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B463" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="C463" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D463" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="0" t="s">
-        <v>273</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B464" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C464" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D464" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B466" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C466" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D466" s="0" t="s">
-        <v>186</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B467" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C467" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D467" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>274</v>
+        <v>121</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C468" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D468" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="C469" s="0" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D469" s="0" t="s">
-        <v>186</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C470" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D470" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>275</v>
+        <v>121</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D471" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="C472" s="0" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="D472" s="0" t="s">
-        <v>186</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C473" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D473" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>276</v>
+        <v>121</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D474" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C475" s="0" t="s">
-        <v>277</v>
+        <v>139</v>
       </c>
       <c r="D475" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B476" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C476" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D476" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B477" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C477" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D477" s="0" t="s">
-        <v>120</v>
+        <v>273</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="C478" s="0" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D478" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B479" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C479" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D479" s="0" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B480" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C480" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D480" s="0" t="s">
-        <v>120</v>
+        <v>274</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="C481" s="0" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="D481" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B482" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C482" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D482" s="0" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B483" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="C483" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D483" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="0" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B484" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D484" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B486" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C486" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D486" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="0" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B487" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D487" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B489" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="C489" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D489" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B490" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C490" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D490" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B492" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C492" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D492" s="0" t="s">
-        <v>186</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B493" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C493" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D493" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>281</v>
+        <v>73</v>
+      </c>
+      <c r="B494" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C494" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D494" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="C495" s="0" t="s">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="D495" s="0" t="s">
-        <v>124</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B496" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C496" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D496" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>283</v>
+        <v>60</v>
+      </c>
+      <c r="B497" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C497" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D497" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="C498" s="0" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="D498" s="0" t="s">
-        <v>124</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B499" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C499" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D499" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>285</v>
+        <v>73</v>
+      </c>
+      <c r="B500" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C500" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D500" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C501" s="0" t="s">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="D501" s="0" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C502" s="0" t="s">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="D502" s="0" t="s">
         <v>88</v>
@@ -6028,10 +6105,10 @@
         <v>60</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C503" s="0" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D503" s="0" t="s">
         <v>88</v>
@@ -6039,13 +6116,13 @@
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C504" s="0" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D504" s="0" t="s">
         <v>88</v>
@@ -6053,100 +6130,54 @@
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C505" s="0" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D505" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B506" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C506" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D506" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B507" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C507" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D507" s="0" t="s">
-        <v>88</v>
+        <v>281</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C508" s="0" t="s">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="D508" s="0" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C509" s="0" t="s">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="D509" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B510" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C510" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D510" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B511" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C511" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D511" s="0" t="s">
-        <v>88</v>
+        <v>282</v>
       </c>
     </row>
     <row r="512">
@@ -6154,13 +6185,13 @@
         <v>82</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C512" s="0" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="D512" s="0" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
     </row>
     <row r="513">
@@ -6171,7 +6202,7 @@
         <v>85</v>
       </c>
       <c r="C513" s="0" t="s">
-        <v>86</v>
+        <v>252</v>
       </c>
       <c r="D513" s="0" t="s">
         <v>88</v>
@@ -6179,1187 +6210,1187 @@
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C516" s="0" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="D516" s="0" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C517" s="0" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="D517" s="0" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C520" s="0" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="D520" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B521" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C521" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D521" s="0" t="s">
-        <v>88</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="0" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B523" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C523" s="0" t="s">
         <v>288</v>
+      </c>
+      <c r="D523" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C524" s="0" t="s">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="D524" s="0" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C525" s="0" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="D525" s="0" t="s">
-        <v>32</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B526" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C526" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D526" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B528" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C528" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="D528" s="0" t="s">
-        <v>32</v>
+        <v>149</v>
+      </c>
+      <c r="B527" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C527" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D527" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B531" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C531" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="D531" s="0" t="s">
-        <v>162</v>
+        <v>99</v>
+      </c>
+      <c r="B530" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C530" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D530" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B532" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C532" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D532" s="0" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="C533" s="0" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D533" s="0" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="C534" s="0" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D534" s="0" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="C535" s="0" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="D535" s="0" t="s">
-        <v>175</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B536" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C536" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D536" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>294</v>
+        <v>121</v>
+      </c>
+      <c r="B537" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C537" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D537" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C538" s="0" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="D538" s="0" t="s">
-        <v>59</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B539" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C539" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D539" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>295</v>
+        <v>121</v>
+      </c>
+      <c r="B540" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C540" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D540" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="C541" s="0" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="D541" s="0" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C542" s="0" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D542" s="0" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C543" s="0" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D543" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C544" s="0" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D544" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B545" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C545" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D545" s="0" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B546" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C546" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D546" s="0" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C547" s="0" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="D547" s="0" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="D548" s="0" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C549" s="0" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D549" s="0" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D550" s="0" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C551" s="0" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D551" s="0" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C552" s="0" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D552" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B553" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C553" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D553" s="0" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>296</v>
+        <v>121</v>
+      </c>
+      <c r="B554" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C554" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D554" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C555" s="0" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="D555" s="0" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="C556" s="0" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="D556" s="0" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C557" s="0" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D557" s="0" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C558" s="0" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D558" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C559" s="0" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D559" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B560" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C560" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D560" s="0" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B561" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C561" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D561" s="0" t="s">
-        <v>124</v>
+        <v>292</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="C562" s="0" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="D562" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B563" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C563" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D563" s="0" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B564" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C564" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D564" s="0" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="C565" s="0" t="s">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="D565" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B566" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C566" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D566" s="0" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B567" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="C567" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D567" s="0" t="s">
-        <v>124</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B568" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C568" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D568" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>297</v>
+        <v>109</v>
+      </c>
+      <c r="B569" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C569" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D569" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C570" s="0" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="D570" s="0" t="s">
-        <v>88</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B571" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C571" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D571" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>298</v>
+        <v>121</v>
+      </c>
+      <c r="B572" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C572" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D572" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="C573" s="0" t="s">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="D573" s="0" t="s">
-        <v>88</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B574" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C574" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D574" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>299</v>
+        <v>121</v>
+      </c>
+      <c r="B575" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C575" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D575" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="C576" s="0" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="D576" s="0" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C577" s="0" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D577" s="0" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C578" s="0" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D578" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C579" s="0" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D579" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B580" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C580" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D580" s="0" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B581" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C581" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D581" s="0" t="s">
-        <v>124</v>
+        <v>295</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C582" s="0" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="D582" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B583" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C583" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D583" s="0" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B584" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C584" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D584" s="0" t="s">
-        <v>124</v>
+        <v>296</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="C585" s="0" t="s">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c r="D585" s="0" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="C586" s="0" t="s">
-        <v>136</v>
+        <v>297</v>
       </c>
       <c r="D586" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B587" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="C587" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D587" s="0" t="s">
-        <v>124</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="0" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B590" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C590" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="D590" s="0" t="s">
-        <v>88</v>
+        <v>172</v>
+      </c>
+      <c r="B589" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C589" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D589" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="0" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>301</v>
+        <v>255</v>
+      </c>
+      <c r="B592" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C592" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D592" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C593" s="0" t="s">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="D593" s="0" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="C594" s="0" t="s">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="D594" s="0" t="s">
-        <v>88</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B595" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C595" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D595" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>303</v>
+        <v>121</v>
+      </c>
+      <c r="B596" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C596" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D596" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="C597" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D597" s="0" t="s">
-        <v>162</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B598" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C598" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D598" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0" t="s">
-        <v>304</v>
+        <v>121</v>
+      </c>
+      <c r="B599" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C599" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D599" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>257</v>
+        <v>131</v>
       </c>
       <c r="C600" s="0" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="D600" s="0" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C601" s="0" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D601" s="0" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D602" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C603" s="0" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D603" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B604" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C604" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D604" s="0" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B605" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C605" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D605" s="0" t="s">
-        <v>124</v>
+        <v>300</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="C606" s="0" t="s">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="D606" s="0" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="C607" s="0" t="s">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="D607" s="0" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>130</v>
+        <v>302</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="C608" s="0" t="s">
-        <v>132</v>
+        <v>304</v>
       </c>
       <c r="D608" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B609" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C609" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D609" s="0" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B610" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C610" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D610" s="0" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="C611" s="0" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="D611" s="0" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C614" s="0" t="s">
-        <v>306</v>
+        <v>164</v>
       </c>
       <c r="D614" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B615" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C615" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="D615" s="0" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B616" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="C616" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D616" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" s="0" t="s">
-        <v>310</v>
+    </row>
+    <row r="617">
+      <c r="A617" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B617" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C617" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D617" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B619" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C619" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D619" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" s="0" t="s">
-        <v>311</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B620" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C620" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D620" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B622" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C622" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B623" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C623" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="D622" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" s="0" t="s">
-        <v>312</v>
+      <c r="D623" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B625" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C625" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D625" s="0" t="s">
-        <v>120</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B626" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C626" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D626" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B628" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C628" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D628" s="0" t="s">
-        <v>124</v>
+        <v>73</v>
+      </c>
+      <c r="B627" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C627" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D627" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="0" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>314</v>
+        <v>82</v>
+      </c>
+      <c r="B630" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C630" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D630" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="B631" s="0" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="D631" s="0" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B634" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C634" s="0" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D634" s="0" t="s">
         <v>59</v>
@@ -7367,13 +7398,13 @@
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D635" s="0" t="s">
         <v>88</v>
@@ -7381,84 +7412,107 @@
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="D638" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B639" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C639" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D639" s="0" t="s">
-        <v>88</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="0" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>317</v>
+        <v>35</v>
+      </c>
+      <c r="B641" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C641" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D641" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>302</v>
+        <v>23</v>
       </c>
       <c r="D642" s="0" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B643" s="0" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>302</v>
+        <v>27</v>
       </c>
       <c r="D643" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B644" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C644" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D644" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>318</v>
+        <v>25</v>
+      </c>
+      <c r="B645" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C645" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D645" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B646" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C646" s="0" t="s">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="D646" s="0" t="s">
         <v>32</v>
@@ -7466,129 +7520,106 @@
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="B649" s="0" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C649" s="0" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D649" s="0" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>21</v>
+        <v>319</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>23</v>
+        <v>257</v>
       </c>
       <c r="D650" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B651" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C651" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D651" s="0" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B652" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C652" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D652" s="0" t="s">
-        <v>32</v>
+        <v>321</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B653" s="0" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="D653" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B654" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C654" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D654" s="0" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="0" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B657" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C657" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="D657" s="0" t="s">
-        <v>162</v>
+        <v>78</v>
+      </c>
+      <c r="B656" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C656" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D656" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="B658" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="C658" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="D658" s="0" t="s">
-        <v>162</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B659" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C659" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D659" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>326</v>
+        <v>60</v>
+      </c>
+      <c r="B660" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C660" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D660" s="0" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="661">
@@ -7599,48 +7630,94 @@
         <v>64</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="D661" s="0" t="s">
-        <v>88</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B662" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C662" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D662" s="0" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>327</v>
+        <v>68</v>
+      </c>
+      <c r="B663" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C663" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D663" s="0" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C664" s="0" t="s">
-        <v>253</v>
+        <v>72</v>
       </c>
       <c r="D664" s="0" t="s">
-        <v>88</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B665" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C665" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D665" s="0" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>328</v>
+        <v>60</v>
+      </c>
+      <c r="B666" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C666" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D666" s="0" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C667" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D667" s="0" t="s">
         <v>260</v>
-      </c>
-      <c r="D667" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="668">
@@ -7648,69 +7725,46 @@
         <v>60</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C668" s="0" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D668" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B669" s="0" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D669" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D670" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B671" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C671" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D671" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B672" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C672" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D672" s="0" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
     </row>
     <row r="673">
@@ -7721,10 +7775,10 @@
         <v>74</v>
       </c>
       <c r="C673" s="0" t="s">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="D673" s="0" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
     </row>
     <row r="674">
@@ -7732,27 +7786,27 @@
         <v>60</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C674" s="0" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D674" s="0" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C675" s="0" t="s">
         <v>65</v>
       </c>
       <c r="D675" s="0" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
     </row>
     <row r="676">
@@ -7760,57 +7814,80 @@
         <v>60</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C676" s="0" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D676" s="0" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B677" s="0" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C677" s="0" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D677" s="0" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B678" s="0" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C678" s="0" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D678" s="0" t="s">
-        <v>261</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B679" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C679" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D679" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>329</v>
+        <v>60</v>
+      </c>
+      <c r="B680" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C680" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D680" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="D681" s="0" t="s">
         <v>88</v>
@@ -7821,10 +7898,10 @@
         <v>60</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C682" s="0" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D682" s="0" t="s">
         <v>88</v>
@@ -7832,13 +7909,13 @@
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C683" s="0" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D683" s="0" t="s">
         <v>88</v>
@@ -7846,163 +7923,117 @@
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C684" s="0" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D684" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B685" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C685" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D685" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B686" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C686" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D686" s="0" t="s">
-        <v>88</v>
+        <v>325</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="D687" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B688" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C688" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D688" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B689" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C689" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D689" s="0" t="s">
-        <v>88</v>
+        <v>326</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C690" s="0" t="s">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="D690" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B691" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C691" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D691" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B692" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C692" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D692" s="0" t="s">
-        <v>88</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B693" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C693" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D693" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B695" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C695" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D695" s="0" t="s">
-        <v>88</v>
+        <v>255</v>
+      </c>
+      <c r="B694" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C694" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D694" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="0" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>331</v>
+        <v>68</v>
+      </c>
+      <c r="B697" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C697" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D697" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C698" s="0" t="s">
-        <v>253</v>
+        <v>51</v>
       </c>
       <c r="D698" s="0" t="s">
         <v>88</v>
@@ -8010,40 +8041,63 @@
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="C701" s="0" t="s">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="D701" s="0" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
       <c r="B702" s="0" t="s">
-        <v>257</v>
+        <v>61</v>
       </c>
       <c r="C702" s="0" t="s">
-        <v>258</v>
+        <v>62</v>
       </c>
       <c r="D702" s="0" t="s">
-        <v>162</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B703" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C703" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D703" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>334</v>
+        <v>60</v>
+      </c>
+      <c r="B704" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C704" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D704" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="705">
@@ -8054,40 +8108,63 @@
         <v>69</v>
       </c>
       <c r="C705" s="0" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D705" s="0" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B706" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C706" s="0" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D706" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B707" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C707" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D707" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>335</v>
+        <v>60</v>
+      </c>
+      <c r="B708" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C708" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D708" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="B709" s="0" t="s">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="C709" s="0" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="D709" s="0" t="s">
         <v>88</v>
@@ -8098,10 +8175,10 @@
         <v>60</v>
       </c>
       <c r="B710" s="0" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C710" s="0" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D710" s="0" t="s">
         <v>88</v>
@@ -8109,13 +8186,13 @@
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B711" s="0" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C711" s="0" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D711" s="0" t="s">
         <v>88</v>
@@ -8123,515 +8200,403 @@
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B712" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C712" s="0" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D712" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B713" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C713" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D713" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B714" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C714" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D714" s="0" t="s">
-        <v>88</v>
+        <v>331</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B715" s="0" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C715" s="0" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="D715" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B716" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C716" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D716" s="0" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B717" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C717" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D717" s="0" t="s">
-        <v>88</v>
+        <v>333</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B718" s="0" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="C718" s="0" t="s">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="D718" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B719" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C719" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D719" s="0" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B720" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C720" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D720" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" s="0" t="s">
-        <v>336</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B721" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C721" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D721" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B723" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C723" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="D723" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" s="0" t="s">
-        <v>338</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B724" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C724" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D724" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B726" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C726" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D726" s="0" t="s">
-        <v>162</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B727" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C727" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D727" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="B729" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="C729" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D729" s="0" t="s">
-        <v>162</v>
+        <v>302</v>
+      </c>
+      <c r="B728" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C728" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D728" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="0" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B732" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C732" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D732" s="0" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="B731" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C731" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D731" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="0" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B735" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C735" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="D735" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B734" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C734" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D734" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B736" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="C736" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D736" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" s="0" t="s">
-        <v>342</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B737" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C737" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D737" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B739" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C739" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D739" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" s="0" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B740" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C740" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D740" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B742" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C742" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="D742" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" s="0" t="s">
-        <v>344</v>
+      <c r="B743" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C743" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D743" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B745" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C745" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D745" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" s="0" t="s">
-        <v>345</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B746" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C746" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D746" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B748" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="C748" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D748" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B749" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C749" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D749" s="0" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" s="0" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B751" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="C751" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D751" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" s="0" t="s">
-        <v>347</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B752" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C752" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D752" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B754" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C754" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="D754" s="0" t="s">
-        <v>32</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B755" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C755" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D755" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0" t="s">
-        <v>349</v>
+        <v>149</v>
+      </c>
+      <c r="B756" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C756" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D756" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0" t="s">
-        <v>324</v>
+        <v>149</v>
       </c>
       <c r="B757" s="0" t="s">
-        <v>325</v>
+        <v>152</v>
       </c>
       <c r="C757" s="0" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="D757" s="0" t="s">
-        <v>162</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B758" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C758" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D758" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="0" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B760" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C760" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D760" s="0" t="s">
-        <v>88</v>
+        <v>149</v>
+      </c>
+      <c r="B759" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C759" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D759" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="0" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="0" t="s">
-        <v>351</v>
+        <v>319</v>
+      </c>
+      <c r="B762" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C762" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D762" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="0" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B763" s="0" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C763" s="0" t="s">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="D763" s="0" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="764">
-      <c r="A764" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B764" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C764" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D764" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
     <row r="765">
       <c r="A765" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B765" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C765" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D765" s="0" t="s">
-        <v>175</v>
+        <v>349</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="0" t="s">
-        <v>149</v>
+        <v>319</v>
       </c>
       <c r="B766" s="0" t="s">
-        <v>154</v>
+        <v>320</v>
       </c>
       <c r="C766" s="0" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="D766" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B767" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C767" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D767" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" s="0" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="B770" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="C770" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="D770" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="B771" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="C771" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="D771" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" s="0" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="B774" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="C774" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D774" s="0" t="s">
         <v>162</v>
       </c>
     </row>
